--- a/Question_Sets/Role-specific skills/Algorithms for Software Engineering.xlsx
+++ b/Question_Sets/Role-specific skills/Algorithms for Software Engineering.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You have a database with employee ID numbers and you are trying to locate a person with a specific ID number. To access the location of an ID takes a constant amount of time. What is the time complexity of locating the ID?', 'ques_type': 2, 'options': ['O(1)', 'O(0)', 'Ω(0)', 'Ω(c)'], 'score': 'O(1)'}, {'title': 'You are trying to draw the recursion tree of an algorithm. The algorithm does a recursive call to the left or the right neighbor of the current number called from the sequence at each step.  What is the greatest number of branches each node in the recursive tree can have?', 'ques_type': 2, 'options': ['1', '2', '3', '4'], 'score': '2'}, {'title': 'You are trying to pick people to form a team for a project. You want to minimize the overall salary requirements of the team. There is only a limit on how many people can be picked from each department. You are using a greedy algorithm. What is the greedy choice property for picking the members of the team?', 'ques_type': 2, 'options': ['Pick the people with the lowest salary available from randomly picked departments.', 'Pick the people with the lowest salary available from the department having the lowest average salary.', 'Pick the people with the lowest salary available from the department having the lowest median salary.', 'Pick the person with the lowest salary available from each of the departments.'], 'score': 'Pick the person with the lowest salary available from each of the departments.'}, {'title': 'You are applying breadth-first search on a connected graph, where vertices represent different departments in the company and edges represent scheduled meetings between those departments. The graph has V vertices and E edges. What is the time complexity of listing all the meetings by traversing the graph?', 'ques_type': 2, 'options': ['O(V)', 'O(E)', 'O(V+E)', 'O(V*E)'], 'score': 'O(V+E)'}]</t>
+    <t>questions = [
+    {
+        "title": "You have a database with employee ID numbers and you are trying to locate a person with a specific ID number. To access the location of an ID takes a constant amount of time. What is the time complexity of locating the ID?",
+        "ques_type": 2,
+        "options": [
+            "O(1)",
+            "O(0)",
+            "\u03a9(0)",
+            "\u03a9(c)"
+        ],
+        "score": "O(1)"
+    },
+    {
+        "title": "You are trying to draw the recursion tree of an algorithm. The algorithm does a recursive call to the left or the right neighbor of the current number called from the sequence at each step.  What is the greatest number of branches each node in the recursive tree can have?",
+        "ques_type": 2,
+        "options": [
+            "1",
+            "2",
+            "3",
+            "4"
+        ],
+        "score": "2"
+    },
+    {
+        "title": "You are trying to pick people to form a team for a project. You want to minimize the overall salary requirements of the team. There is only a limit on how many people can be picked from each department. You are using a greedy algorithm. What is the greedy choice property for picking the members of the team?",
+        "ques_type": 2,
+        "options": [
+            "Pick the people with the lowest salary available from randomly picked departments.",
+            "Pick the people with the lowest salary available from the department having the lowest average salary.",
+            "Pick the people with the lowest salary available from the department having the lowest median salary.",
+            "Pick the person with the lowest salary available from each of the departments."
+        ],
+        "score": "Pick the person with the lowest salary available from each of the departments."
+    },
+    {
+        "title": "You are applying breadth-first search on a connected graph, where vertices represent different departments in the company and edges represent scheduled meetings between those departments. The graph has V vertices and E edges. What is the time complexity of listing all the meetings by traversing the graph?",
+        "ques_type": 2,
+        "options": [
+            "O(V)",
+            "O(E)",
+            "O(V+E)",
+            "O(V*E)"
+        ],
+        "score": "O(V+E)"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
